--- a/Results/Complete_Backtest/BacktestKPIs.xlsx
+++ b/Results/Complete_Backtest/BacktestKPIs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Strats_names</t>
   </si>
@@ -48,238 +48,256 @@
     <t xml:space="preserve">Historical VaR (95%)</t>
   </si>
   <si>
+    <t>MVP_most_8_2022</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>MVP_most_8_2021</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>MVP_most_8_2020</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>MVP_most_6_2022</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>MVP_most_6_2021</t>
+  </si>
+  <si>
+    <t>MVP_most_6_2020</t>
+  </si>
+  <si>
+    <t>MVP_most_4_2022</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>MVP_most_4_2021</t>
+  </si>
+  <si>
+    <t>MVP_most_4_2020</t>
+  </si>
+  <si>
+    <t>MVP_less_8_2022</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>MVP_less_8_2021</t>
+  </si>
+  <si>
+    <t>MVP_less_8_2020</t>
+  </si>
+  <si>
+    <t>MVP_less_6_2022</t>
+  </si>
+  <si>
+    <t>MVP_less_6_2021</t>
+  </si>
+  <si>
+    <t>MVP_less_6_2020</t>
+  </si>
+  <si>
+    <t>MVP_less_4_2022</t>
+  </si>
+  <si>
+    <t>MVP_less_4_2021</t>
+  </si>
+  <si>
+    <t>MVP_less_4_2020</t>
+  </si>
+  <si>
+    <t>maxSR_most_8_2022</t>
+  </si>
+  <si>
+    <t>maxSR</t>
+  </si>
+  <si>
+    <t>maxSR_most_8_2021</t>
+  </si>
+  <si>
+    <t>maxSR_most_8_2020</t>
+  </si>
+  <si>
+    <t>maxSR_most_6_2022</t>
+  </si>
+  <si>
+    <t>maxSR_most_6_2021</t>
+  </si>
+  <si>
+    <t>maxSR_most_6_2020</t>
+  </si>
+  <si>
+    <t>maxSR_most_4_2022</t>
+  </si>
+  <si>
+    <t>maxSR_most_4_2021</t>
+  </si>
+  <si>
+    <t>maxSR_most_4_2020</t>
+  </si>
+  <si>
+    <t>maxSR_less_8_2022</t>
+  </si>
+  <si>
+    <t>maxSR_less_8_2021</t>
+  </si>
+  <si>
+    <t>maxSR_less_8_2020</t>
+  </si>
+  <si>
+    <t>maxSR_less_6_2022</t>
+  </si>
+  <si>
+    <t>maxSR_less_6_2021</t>
+  </si>
+  <si>
+    <t>maxSR_less_6_2020</t>
+  </si>
+  <si>
+    <t>maxSR_less_4_2022</t>
+  </si>
+  <si>
+    <t>maxSR_less_4_2021</t>
+  </si>
+  <si>
+    <t>maxSR_less_4_2020</t>
+  </si>
+  <si>
+    <t>InvInef_most_8_2022</t>
+  </si>
+  <si>
+    <t>InvInef</t>
+  </si>
+  <si>
+    <t>InvInef_most_8_2021</t>
+  </si>
+  <si>
+    <t>InvInef_most_8_2020</t>
+  </si>
+  <si>
+    <t>InvInef_most_6_2022</t>
+  </si>
+  <si>
+    <t>InvInef_most_6_2021</t>
+  </si>
+  <si>
+    <t>InvInef_most_6_2020</t>
+  </si>
+  <si>
+    <t>InvInef_most_4_2022</t>
+  </si>
+  <si>
+    <t>InvInef_most_4_2021</t>
+  </si>
+  <si>
+    <t>InvInef_most_4_2020</t>
+  </si>
+  <si>
+    <t>InvInef_less_8_2022</t>
+  </si>
+  <si>
+    <t>InvInef_less_8_2021</t>
+  </si>
+  <si>
+    <t>InvInef_less_8_2020</t>
+  </si>
+  <si>
+    <t>InvInef_less_6_2022</t>
+  </si>
+  <si>
+    <t>InvInef_less_6_2021</t>
+  </si>
+  <si>
+    <t>InvInef_less_6_2020</t>
+  </si>
+  <si>
     <t>InvInef_less_4_2022</t>
   </si>
   <si>
-    <t>InvInef</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>MVP_less_4_2022</t>
-  </si>
-  <si>
-    <t>MVP</t>
-  </si>
-  <si>
-    <t>InvInef_less_6_2022</t>
-  </si>
-  <si>
-    <t>MVP_less_6_2022</t>
-  </si>
-  <si>
-    <t>maxSR_less_6_2022</t>
-  </si>
-  <si>
-    <t>maxSR</t>
+    <t>InvInef_less_4_2021</t>
+  </si>
+  <si>
+    <t>InvInef_less_4_2020</t>
+  </si>
+  <si>
+    <t>EW_most_8_2022</t>
+  </si>
+  <si>
+    <t>EW</t>
+  </si>
+  <si>
+    <t>EW_most_8_2021</t>
+  </si>
+  <si>
+    <t>EW_most_8_2020</t>
+  </si>
+  <si>
+    <t>EW_most_6_2022</t>
+  </si>
+  <si>
+    <t>EW_most_6_2021</t>
+  </si>
+  <si>
+    <t>EW_most_6_2020</t>
+  </si>
+  <si>
+    <t>EW_most_4_2022</t>
+  </si>
+  <si>
+    <t>EW_most_4_2021</t>
+  </si>
+  <si>
+    <t>EW_most_4_2020</t>
+  </si>
+  <si>
+    <t>EW_less_8_2022</t>
+  </si>
+  <si>
+    <t>EW_less_8_2021</t>
+  </si>
+  <si>
+    <t>EW_less_8_2020</t>
   </si>
   <si>
     <t>EW_less_6_2022</t>
   </si>
   <si>
-    <t>EW</t>
-  </si>
-  <si>
-    <t>maxSR_less_4_2022</t>
+    <t>EW_less_6_2021</t>
+  </si>
+  <si>
+    <t>EW_less_6_2020</t>
   </si>
   <si>
     <t>EW_less_4_2022</t>
   </si>
   <si>
-    <t>EW_less_8_2022</t>
-  </si>
-  <si>
-    <t>InvInef_less_8_2022</t>
-  </si>
-  <si>
-    <t>maxSR_most_8_2022</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>MVP_less_8_2022</t>
-  </si>
-  <si>
-    <t>maxSR_less_8_2022</t>
-  </si>
-  <si>
-    <t>InvInef_most_6_2022</t>
-  </si>
-  <si>
-    <t>EW_most_8_2022</t>
-  </si>
-  <si>
-    <t>MVP_most_8_2022</t>
-  </si>
-  <si>
-    <t>EW_most_4_2022</t>
-  </si>
-  <si>
-    <t>EW_most_6_2022</t>
-  </si>
-  <si>
-    <t>InvInef_most_4_2022</t>
-  </si>
-  <si>
-    <t>InvInef_most_8_2022</t>
-  </si>
-  <si>
-    <t>MVP_most_4_2022</t>
-  </si>
-  <si>
-    <t>maxSR_most_4_2022</t>
-  </si>
-  <si>
-    <t>MVP_most_6_2022</t>
-  </si>
-  <si>
-    <t>maxSR_most_6_2022</t>
-  </si>
-  <si>
-    <t>MVP_most_8_2021</t>
-  </si>
-  <si>
-    <t>EW_less_6_2021</t>
-  </si>
-  <si>
-    <t>InvInef_most_6_2020</t>
-  </si>
-  <si>
-    <t>InvInef_less_6_2020</t>
-  </si>
-  <si>
-    <t>InvInef_less_8_2020</t>
-  </si>
-  <si>
-    <t>InvInef_less_6_2021</t>
-  </si>
-  <si>
-    <t>InvInef_most_8_2021</t>
-  </si>
-  <si>
-    <t>EW_less_6_2020</t>
-  </si>
-  <si>
-    <t>EW_most_4_2020</t>
-  </si>
-  <si>
-    <t>InvInef_most_4_2020</t>
-  </si>
-  <si>
-    <t>EW_less_8_2020</t>
-  </si>
-  <si>
-    <t>InvInef_most_8_2020</t>
-  </si>
-  <si>
     <t>EW_less_4_2021</t>
   </si>
   <si>
-    <t>InvInef_less_4_2020</t>
-  </si>
-  <si>
-    <t>maxSR_less_6_2021</t>
-  </si>
-  <si>
     <t>EW_less_4_2020</t>
-  </si>
-  <si>
-    <t>MVP_most_4_2020</t>
-  </si>
-  <si>
-    <t>MVP_less_4_2021</t>
-  </si>
-  <si>
-    <t>MVP_less_6_2021</t>
-  </si>
-  <si>
-    <t>EW_most_6_2020</t>
-  </si>
-  <si>
-    <t>maxSR_most_8_2021</t>
-  </si>
-  <si>
-    <t>InvInef_less_4_2021</t>
-  </si>
-  <si>
-    <t>EW_most_8_2020</t>
-  </si>
-  <si>
-    <t>maxSR_less_4_2021</t>
-  </si>
-  <si>
-    <t>maxSR_most_4_2020</t>
-  </si>
-  <si>
-    <t>MVP_most_6_2021</t>
-  </si>
-  <si>
-    <t>maxSR_most_6_2021</t>
-  </si>
-  <si>
-    <t>maxSR_most_8_2020</t>
-  </si>
-  <si>
-    <t>EW_most_8_2021</t>
-  </si>
-  <si>
-    <t>EW_less_8_2021</t>
-  </si>
-  <si>
-    <t>MVP_most_8_2020</t>
-  </si>
-  <si>
-    <t>maxSR_less_8_2021</t>
-  </si>
-  <si>
-    <t>InvInef_less_8_2021</t>
-  </si>
-  <si>
-    <t>MVP_less_8_2020</t>
-  </si>
-  <si>
-    <t>MVP_less_8_2021</t>
-  </si>
-  <si>
-    <t>EW_most_6_2021</t>
-  </si>
-  <si>
-    <t>MVP_less_6_2020</t>
-  </si>
-  <si>
-    <t>maxSR_most_6_2020</t>
-  </si>
-  <si>
-    <t>maxSR_less_8_2020</t>
-  </si>
-  <si>
-    <t>MVP_less_4_2020</t>
-  </si>
-  <si>
-    <t>MVP_most_6_2020</t>
-  </si>
-  <si>
-    <t>maxSR_less_6_2020</t>
-  </si>
-  <si>
-    <t>maxSR_less_4_2020</t>
-  </si>
-  <si>
-    <t>MVP_most_4_2021</t>
-  </si>
-  <si>
-    <t>maxSR_most_4_2021</t>
-  </si>
-  <si>
-    <t>EW_most_4_2021</t>
-  </si>
-  <si>
-    <t>InvInef_most_6_2021</t>
-  </si>
-  <si>
-    <t>InvInef_most_4_2021</t>
   </si>
 </sst>
 </file>
@@ -301,27 +319,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor theme="9" tint="0.39997558519241921"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="5"/>
-        <bgColor indexed="5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -329,32 +335,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,12 +859,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.140625"/>
-    <col customWidth="1" min="2" max="2" width="20.57421875"/>
-    <col customWidth="1" min="3" max="10" width="19.57421875"/>
+    <col customWidth="1" min="1" max="10" width="20.8515625"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,63 +904,63 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>2022</v>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>-0.758197725843615</v>
+        <v>-0.58504635657867277</v>
       </c>
       <c r="G2">
-        <v>-0.69169999999999998</v>
+        <v>-0.51770000000000005</v>
       </c>
       <c r="H2">
-        <v>0.7712</v>
+        <v>0.72609999999999997</v>
       </c>
       <c r="I2">
-        <v>-0.89690000000000003</v>
+        <v>-0.71299999999999997</v>
       </c>
       <c r="J2">
-        <v>-0.082000000000000003</v>
+        <v>-0.079699999999999993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>2022</v>
+      <c r="E3" t="s">
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>-0.75696948737884895</v>
+        <v>-0.16790188087355751</v>
       </c>
       <c r="G3">
-        <v>-0.69040000000000001</v>
+        <v>-0.1192</v>
       </c>
       <c r="H3">
-        <v>0.83160000000000001</v>
+        <v>0.95650000000000002</v>
       </c>
       <c r="I3">
-        <v>-0.83020000000000005</v>
+        <v>-0.1246</v>
       </c>
       <c r="J3">
-        <v>-0.083900000000000002</v>
+        <v>-0.089499999999999996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -981,1271 +968,1271 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>2022</v>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>-0.75514818607790302</v>
+        <v>0.89499351884745115</v>
       </c>
       <c r="G4">
-        <v>-0.6885</v>
+        <v>0.55289999999999995</v>
       </c>
       <c r="H4">
-        <v>0.69589999999999996</v>
+        <v>0.84850000000000003</v>
       </c>
       <c r="I4">
-        <v>-0.98939999999999995</v>
+        <v>0.65159999999999996</v>
       </c>
       <c r="J4">
-        <v>-0.078700000000000006</v>
+        <v>-0.075300000000000006</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>-0.72385284386376614</v>
+      </c>
+      <c r="G5">
+        <v>-0.65590000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0.78510000000000002</v>
+      </c>
+      <c r="I5">
+        <v>-0.83540000000000003</v>
+      </c>
+      <c r="J5">
+        <v>-0.084000000000000005</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="F6">
+        <v>0.99069362113703807</v>
+      </c>
+      <c r="G6">
+        <v>0.60860000000000003</v>
+      </c>
+      <c r="H6">
+        <v>1.1411</v>
+      </c>
+      <c r="I6">
+        <v>0.5333</v>
+      </c>
+      <c r="J6">
+        <v>-0.091200000000000003</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>0.01042473690892454</v>
+      </c>
+      <c r="G7">
+        <v>0.0071999999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="I7">
+        <v>0.0083000000000000001</v>
+      </c>
+      <c r="J7">
+        <v>-0.067000000000000004</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2022</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-0.73933566284736596</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-0.67190000000000005</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.71179999999999999</v>
-      </c>
-      <c r="I5" s="2">
-        <v>-0.94389999999999996</v>
-      </c>
-      <c r="J5" s="2">
-        <v>-0.075700000000000003</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2022</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-0.73933566284736596</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-0.67190000000000005</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.71179999999999999</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-0.94389999999999996</v>
-      </c>
-      <c r="J6" s="2">
-        <v>-0.075700000000000003</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2022</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-0.73933566284736596</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-0.67190000000000005</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.71179999999999999</v>
-      </c>
-      <c r="I7" s="2">
-        <v>-0.94389999999999996</v>
-      </c>
-      <c r="J7" s="2">
-        <v>-0.075700000000000003</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2022</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-0.72329270099019105</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-0.65529999999999999</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.77410000000000001</v>
-      </c>
-      <c r="I8" s="3">
-        <v>-0.84650000000000003</v>
-      </c>
-      <c r="J8" s="3">
-        <v>-0.080799999999999997</v>
+      <c r="F8">
+        <v>-0.51000522722227792</v>
+      </c>
+      <c r="G8">
+        <v>-0.44640000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.6048</v>
+      </c>
+      <c r="I8">
+        <v>-0.73819999999999997</v>
+      </c>
+      <c r="J8">
+        <v>-0.068099999999999994</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2022</v>
-      </c>
-      <c r="F9" s="3">
-        <v>-0.72329270099019105</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-0.65529999999999999</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.77410000000000001</v>
-      </c>
-      <c r="I9" s="3">
-        <v>-0.84650000000000003</v>
-      </c>
-      <c r="J9" s="3">
-        <v>-0.080799999999999997</v>
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>5.228418978989561</v>
+      </c>
+      <c r="G9">
+        <v>2.5354999999999999</v>
+      </c>
+      <c r="H9">
+        <v>1.4420999999999999</v>
+      </c>
+      <c r="I9">
+        <v>1.7582</v>
+      </c>
+      <c r="J9">
+        <v>-0.11559999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>2022</v>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>-0.71786677042228297</v>
+        <v>0.64828658441922071</v>
       </c>
       <c r="G10">
-        <v>-0.64970000000000006</v>
+        <v>0.41070000000000001</v>
       </c>
       <c r="H10">
-        <v>0.65180000000000005</v>
+        <v>0.86509999999999998</v>
       </c>
       <c r="I10">
-        <v>-0.99680000000000002</v>
+        <v>0.47470000000000001</v>
       </c>
       <c r="J10">
-        <v>-0.0717</v>
+        <v>-0.082199999999999995</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>2022</v>
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>-0.67439455895568501</v>
+        <v>-0.65862062964408308</v>
       </c>
       <c r="G11">
-        <v>-0.60550000000000004</v>
+        <v>-0.5897</v>
       </c>
       <c r="H11">
-        <v>0.66010000000000002</v>
+        <v>0.63849999999999996</v>
       </c>
       <c r="I11">
-        <v>-0.9173</v>
+        <v>-0.92369999999999997</v>
       </c>
       <c r="J11">
-        <v>-0.072599999999999998</v>
+        <v>-0.074300000000000005</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>2022</v>
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>-0.64040011897335802</v>
+        <v>0.9342356004571335</v>
       </c>
       <c r="G12">
-        <v>-0.57169999999999999</v>
+        <v>0.57689999999999997</v>
       </c>
       <c r="H12">
-        <v>0.64259999999999995</v>
+        <v>0.97009999999999996</v>
       </c>
       <c r="I12">
-        <v>-0.88949999999999996</v>
+        <v>0.59470000000000001</v>
       </c>
       <c r="J12">
-        <v>-0.073800000000000004</v>
+        <v>-0.087400000000000005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>2022</v>
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
       </c>
       <c r="F13">
-        <v>-0.63886854149021799</v>
+        <v>0.78266902510443437</v>
       </c>
       <c r="G13">
-        <v>-0.57010000000000005</v>
+        <v>0.4889</v>
       </c>
       <c r="H13">
-        <v>0.54220000000000002</v>
+        <v>0.92910000000000004</v>
       </c>
       <c r="I13">
-        <v>-1.0515000000000001</v>
+        <v>0.5262</v>
       </c>
       <c r="J13">
-        <v>-0.0613</v>
+        <v>-0.080199999999999994</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>2022</v>
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>-0.63477516822685398</v>
+        <v>-0.86463863200887903</v>
       </c>
       <c r="G14">
-        <v>-0.56610000000000005</v>
+        <v>-0.80940000000000001</v>
       </c>
       <c r="H14">
-        <v>0.53959999999999997</v>
+        <v>0.83250000000000002</v>
       </c>
       <c r="I14">
-        <v>-1.0491999999999999</v>
+        <v>-0.97230000000000005</v>
       </c>
       <c r="J14">
-        <v>-0.059700000000000003</v>
+        <v>-0.088200000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>2022</v>
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>-0.61999312761514902</v>
+        <v>0.9694867390263342</v>
       </c>
       <c r="G15">
-        <v>-0.55159999999999998</v>
+        <v>0.59670000000000001</v>
       </c>
       <c r="H15">
-        <v>0.60419999999999996</v>
+        <v>1.5006999999999999</v>
       </c>
       <c r="I15">
-        <v>-0.91300000000000003</v>
+        <v>0.39760000000000001</v>
       </c>
       <c r="J15">
-        <v>-0.072999999999999995</v>
+        <v>-0.10440000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>2022</v>
+      <c r="E16" t="s">
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>-0.61976199469099502</v>
+        <v>0.27027380922834698</v>
       </c>
       <c r="G16">
-        <v>-0.5514</v>
+        <v>0.17910000000000001</v>
       </c>
       <c r="H16">
-        <v>0.62580000000000002</v>
+        <v>0.73480000000000001</v>
       </c>
       <c r="I16">
-        <v>-0.88100000000000001</v>
+        <v>0.2437</v>
       </c>
       <c r="J16">
-        <v>-0.076600000000000001</v>
+        <v>-0.060499999999999998</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>2022</v>
-      </c>
       <c r="F17">
-        <v>-0.61275829061050102</v>
+        <v>-0.79077870257766425</v>
       </c>
       <c r="G17">
-        <v>-0.54449999999999998</v>
+        <v>-0.72660000000000002</v>
       </c>
       <c r="H17">
-        <v>0.63200000000000001</v>
+        <v>0.80379999999999996</v>
       </c>
       <c r="I17">
-        <v>-0.86160000000000003</v>
+        <v>-0.90400000000000003</v>
       </c>
       <c r="J17">
-        <v>-0.068699999999999997</v>
+        <v>-0.081000000000000003</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>2022</v>
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>-0.60094218697580204</v>
+        <v>0.109726243887964</v>
       </c>
       <c r="G18">
-        <v>-0.53300000000000003</v>
+        <v>0.074499999999999997</v>
       </c>
       <c r="H18">
-        <v>0.70009999999999994</v>
+        <v>1.0489999999999999</v>
       </c>
       <c r="I18">
-        <v>-0.76129999999999998</v>
+        <v>0.070999999999999994</v>
       </c>
       <c r="J18">
-        <v>-0.074300000000000005</v>
+        <v>-0.089499999999999996</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>2022</v>
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
       </c>
       <c r="F19">
-        <v>-0.58867083473529103</v>
+        <v>0.25453930294446381</v>
       </c>
       <c r="G19">
-        <v>-0.5212</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="H19">
-        <v>0.62329999999999997</v>
+        <v>0.77639999999999998</v>
       </c>
       <c r="I19">
-        <v>-0.83609999999999995</v>
+        <v>0.2177</v>
       </c>
       <c r="J19">
-        <v>-0.074999999999999997</v>
+        <v>-0.069400000000000003</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>2022</v>
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>-0.57978801420046899</v>
+        <v>-0.50859782926016694</v>
       </c>
       <c r="G20">
-        <v>-0.51259999999999994</v>
+        <v>-0.4451</v>
       </c>
       <c r="H20">
-        <v>0.70279999999999998</v>
+        <v>0.5897</v>
       </c>
       <c r="I20">
-        <v>-0.72929999999999995</v>
+        <v>-0.75480000000000003</v>
       </c>
       <c r="J20">
-        <v>-0.079100000000000004</v>
+        <v>-0.065199999999999994</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>2022</v>
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
       </c>
       <c r="F21">
-        <v>-0.56312566687569499</v>
+        <v>-0.22077585824715901</v>
       </c>
       <c r="G21">
-        <v>-0.49659999999999999</v>
+        <v>-0.15820000000000001</v>
       </c>
       <c r="H21">
-        <v>0.57879999999999998</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="I21">
-        <v>-0.85809999999999997</v>
+        <v>-0.16139999999999999</v>
       </c>
       <c r="J21">
-        <v>-0.066799999999999998</v>
+        <v>-0.087599999999999997</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>2022</v>
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
       </c>
       <c r="F22">
-        <v>-0.54740258122957497</v>
+        <v>0.55214891802198962</v>
       </c>
       <c r="G22">
-        <v>-0.48170000000000002</v>
+        <v>0.35349999999999998</v>
       </c>
       <c r="H22">
-        <v>0.68149999999999999</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="I22">
-        <v>-0.70669999999999999</v>
+        <v>0.44750000000000001</v>
       </c>
       <c r="J22">
-        <v>-0.076999999999999999</v>
+        <v>-0.0688</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>2022</v>
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
       </c>
       <c r="F23">
-        <v>-0.531959007623104</v>
+        <v>-0.59879257733205504</v>
       </c>
       <c r="G23">
-        <v>-0.46710000000000002</v>
+        <v>-0.53100000000000003</v>
       </c>
       <c r="H23">
-        <v>0.67010000000000003</v>
+        <v>0.87880000000000003</v>
       </c>
       <c r="I23">
-        <v>-0.69699999999999995</v>
+        <v>-0.60419999999999996</v>
       </c>
       <c r="J23">
-        <v>-0.074099999999999999</v>
+        <v>-0.090899999999999995</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
       <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>2022</v>
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>-0.53142338467488104</v>
+        <v>0.64299562486816075</v>
       </c>
       <c r="G24">
-        <v>-0.46650000000000003</v>
+        <v>0.40889999999999999</v>
       </c>
       <c r="H24">
-        <v>0.63170000000000004</v>
+        <v>0.94369999999999998</v>
       </c>
       <c r="I24">
-        <v>-0.73860000000000003</v>
+        <v>0.43330000000000002</v>
       </c>
       <c r="J24">
-        <v>-0.068500000000000005</v>
+        <v>-0.089700000000000002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>2022</v>
-      </c>
       <c r="F25">
-        <v>-0.48162476808562299</v>
+        <v>0.022615821255261851</v>
       </c>
       <c r="G25">
-        <v>-0.41999999999999998</v>
+        <v>0.0155</v>
       </c>
       <c r="H25">
-        <v>0.60460000000000003</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="I25">
-        <v>-0.6946</v>
+        <v>0.018700000000000001</v>
       </c>
       <c r="J25">
-        <v>-0.061699999999999998</v>
+        <v>-0.071499999999999994</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
         <v>14</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>2021</v>
-      </c>
       <c r="F26">
-        <v>-0.050339675638220602</v>
+        <v>-0.66283269014617541</v>
       </c>
       <c r="G26">
-        <v>-0.035000000000000003</v>
+        <v>-0.59389999999999998</v>
       </c>
       <c r="H26">
-        <v>0.94269999999999998</v>
+        <v>0.78280000000000005</v>
       </c>
       <c r="I26">
-        <v>-0.037199999999999997</v>
+        <v>-0.75870000000000004</v>
       </c>
       <c r="J26">
-        <v>-0.089200000000000002</v>
+        <v>-0.090399999999999994</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27">
-        <v>2021</v>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
       </c>
       <c r="F27">
-        <v>0.181577483684316</v>
+        <v>3.0856424447874282</v>
       </c>
       <c r="G27">
-        <v>0.1221</v>
+        <v>1.6425000000000001</v>
       </c>
       <c r="H27">
-        <v>1.0381</v>
+        <v>1.3444</v>
       </c>
       <c r="I27">
-        <v>0.1176</v>
+        <v>1.2217</v>
       </c>
       <c r="J27">
-        <v>-0.089800000000000005</v>
+        <v>-0.10920000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28">
-        <v>2020</v>
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
       </c>
       <c r="F28">
-        <v>0.20242415494805899</v>
+        <v>-0.3441982876778672</v>
       </c>
       <c r="G28">
-        <v>0.1353</v>
+        <v>-0.25209999999999999</v>
       </c>
       <c r="H28">
-        <v>0.90329999999999999</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="I28">
-        <v>0.14979999999999999</v>
+        <v>-0.3049</v>
       </c>
       <c r="J28">
-        <v>-0.089800000000000005</v>
+        <v>-0.067900000000000002</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>2020</v>
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
       </c>
       <c r="F29">
-        <v>0.251039213659498</v>
+        <v>-0.59128519647493205</v>
       </c>
       <c r="G29">
-        <v>0.16669999999999999</v>
+        <v>-0.52370000000000005</v>
       </c>
       <c r="H29">
-        <v>0.69930000000000003</v>
+        <v>0.69059999999999999</v>
       </c>
       <c r="I29">
-        <v>0.23849999999999999</v>
+        <v>-0.75829999999999997</v>
       </c>
       <c r="J29">
-        <v>-0.065299999999999997</v>
+        <v>-0.069699999999999998</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="E30">
-        <v>2020</v>
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
       </c>
       <c r="F30">
-        <v>0.25392497002790299</v>
+        <v>0.36050882069181373</v>
       </c>
       <c r="G30">
-        <v>0.1686</v>
+        <v>0.23680000000000001</v>
       </c>
       <c r="H30">
-        <v>0.70379999999999998</v>
+        <v>1.0972</v>
       </c>
       <c r="I30">
-        <v>0.23960000000000001</v>
+        <v>0.21579999999999999</v>
       </c>
       <c r="J30">
-        <v>-0.068000000000000005</v>
+        <v>-0.097299999999999998</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>2021</v>
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
       </c>
       <c r="F31">
-        <v>0.27694824846141203</v>
+        <v>0.52027121105936192</v>
       </c>
       <c r="G31">
-        <v>0.18390000000000001</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="H31">
-        <v>1.0926</v>
+        <v>0.8629</v>
       </c>
       <c r="I31">
-        <v>0.16830000000000001</v>
+        <v>0.38740000000000002</v>
       </c>
       <c r="J31">
-        <v>-0.0901</v>
+        <v>-0.073099999999999998</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>2021</v>
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
       </c>
       <c r="F32">
-        <v>0.30569616993132298</v>
+        <v>-0.76011804091400204</v>
       </c>
       <c r="G32">
-        <v>0.20219999999999999</v>
+        <v>-0.69379999999999997</v>
       </c>
       <c r="H32">
-        <v>0.93300000000000005</v>
+        <v>0.94920000000000004</v>
       </c>
       <c r="I32">
-        <v>0.2167</v>
+        <v>-0.73089999999999999</v>
       </c>
       <c r="J32">
-        <v>-0.088499999999999995</v>
+        <v>-0.092200000000000004</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
         <v>20</v>
       </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="E33">
-        <v>2020</v>
+      <c r="E33" t="s">
+        <v>16</v>
       </c>
       <c r="F33">
-        <v>0.33256027442619701</v>
+        <v>1.0846069676895349</v>
       </c>
       <c r="G33">
-        <v>0.21859999999999999</v>
+        <v>0.66059999999999997</v>
       </c>
       <c r="H33">
-        <v>0.64429999999999998</v>
+        <v>1.6753</v>
       </c>
       <c r="I33">
-        <v>0.3392</v>
+        <v>0.39429999999999998</v>
       </c>
       <c r="J33">
-        <v>-0.062199999999999998</v>
+        <v>-0.10059999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
         <v>20</v>
       </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>2020</v>
+      <c r="E34" t="s">
+        <v>18</v>
       </c>
       <c r="F34">
-        <v>0.34212304662167897</v>
+        <v>0.15133552546756901</v>
       </c>
       <c r="G34">
-        <v>0.22459999999999999</v>
+        <v>0.1019</v>
       </c>
       <c r="H34">
-        <v>0.8216</v>
+        <v>0.55489999999999995</v>
       </c>
       <c r="I34">
-        <v>0.27329999999999999</v>
+        <v>0.18360000000000001</v>
       </c>
       <c r="J34">
-        <v>-0.079100000000000004</v>
+        <v>-0.051200000000000002</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35">
-        <v>2020</v>
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
       </c>
       <c r="F35">
-        <v>0.35964297431249198</v>
+        <v>-0.87434824187569338</v>
       </c>
       <c r="G35">
-        <v>0.2356</v>
+        <v>-0.82079999999999997</v>
       </c>
       <c r="H35">
-        <v>0.80110000000000003</v>
+        <v>0.92069999999999996</v>
       </c>
       <c r="I35">
-        <v>0.29409999999999997</v>
+        <v>-0.89149999999999996</v>
       </c>
       <c r="J35">
-        <v>-0.079000000000000001</v>
+        <v>-0.088999999999999996</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36">
-        <v>8</v>
-      </c>
-      <c r="E36">
-        <v>2020</v>
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
       </c>
       <c r="F36">
-        <v>0.37427967113511001</v>
+        <v>0.22289914844858319</v>
       </c>
       <c r="G36">
-        <v>0.2447</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="H36">
-        <v>0.71499999999999997</v>
+        <v>0.8841</v>
       </c>
       <c r="I36">
-        <v>0.34229999999999999</v>
+        <v>0.1686</v>
       </c>
       <c r="J36">
-        <v>-0.065699999999999995</v>
+        <v>-0.073800000000000004</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37">
-        <v>8</v>
-      </c>
-      <c r="E37">
-        <v>2020</v>
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
       </c>
       <c r="F37">
-        <v>0.39865169594521299</v>
+        <v>0.19484895477213421</v>
       </c>
       <c r="G37">
-        <v>0.25990000000000002</v>
+        <v>0.13039999999999999</v>
       </c>
       <c r="H37">
-        <v>0.84409999999999996</v>
+        <v>0.64739999999999998</v>
       </c>
       <c r="I37">
-        <v>0.30790000000000001</v>
+        <v>0.2014</v>
       </c>
       <c r="J37">
-        <v>-0.088800000000000004</v>
+        <v>-0.060900000000000003</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>2021</v>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
       </c>
       <c r="F38">
-        <v>0.40578663392001502</v>
+        <v>-0.56312566687569465</v>
       </c>
       <c r="G38">
-        <v>0.2651</v>
+        <v>-0.49659999999999999</v>
       </c>
       <c r="H38">
-        <v>1.1527000000000001</v>
+        <v>0.57879999999999998</v>
       </c>
       <c r="I38">
-        <v>0.23000000000000001</v>
+        <v>-0.85809999999999997</v>
       </c>
       <c r="J38">
-        <v>-0.093600000000000003</v>
+        <v>-0.066799999999999998</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <v>2020</v>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
       </c>
       <c r="F39">
-        <v>0.46404750296981701</v>
+        <v>0.30569616993132342</v>
       </c>
       <c r="G39">
-        <v>0.30009999999999998</v>
+        <v>0.20219999999999999</v>
       </c>
       <c r="H39">
-        <v>0.62990000000000002</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="I39">
-        <v>0.47649999999999998</v>
+        <v>0.2167</v>
       </c>
       <c r="J39">
-        <v>-0.057700000000000001</v>
+        <v>-0.088499999999999995</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
         <v>18</v>
       </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>2021</v>
-      </c>
       <c r="F40">
-        <v>0.47980796628313999</v>
+        <v>0.39865169594521288</v>
       </c>
       <c r="G40">
-        <v>0.31069999999999998</v>
+        <v>0.25990000000000002</v>
       </c>
       <c r="H40">
-        <v>1.113</v>
+        <v>0.84409999999999996</v>
       </c>
       <c r="I40">
-        <v>0.2792</v>
+        <v>0.30790000000000001</v>
       </c>
       <c r="J40">
-        <v>-0.086499999999999994</v>
+        <v>-0.088800000000000004</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
         <v>20</v>
       </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>2020</v>
+      <c r="E41" t="s">
+        <v>14</v>
       </c>
       <c r="F41">
-        <v>0.515502165248794</v>
+        <v>-0.61999312761514869</v>
       </c>
       <c r="G41">
-        <v>0.33139999999999997</v>
+        <v>-0.55159999999999998</v>
       </c>
       <c r="H41">
-        <v>0.6169</v>
+        <v>0.60419999999999996</v>
       </c>
       <c r="I41">
-        <v>0.5373</v>
+        <v>-0.91300000000000003</v>
       </c>
       <c r="J41">
-        <v>-0.054600000000000003</v>
+        <v>-0.072999999999999995</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>2020</v>
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
       </c>
       <c r="F42">
-        <v>0.53507695699116598</v>
+        <v>2.4929715910430161</v>
       </c>
       <c r="G42">
-        <v>0.34320000000000001</v>
+        <v>1.3714999999999999</v>
       </c>
       <c r="H42">
-        <v>0.80010000000000003</v>
+        <v>1.1825000000000001</v>
       </c>
       <c r="I42">
-        <v>0.42899999999999999</v>
+        <v>1.1597999999999999</v>
       </c>
       <c r="J42">
-        <v>-0.077200000000000005</v>
+        <v>-0.099000000000000005</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
         <v>57</v>
       </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>2021</v>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
       </c>
       <c r="F43">
-        <v>0.54479685723306104</v>
+        <v>0.20242415494805849</v>
       </c>
       <c r="G43">
-        <v>0.35020000000000001</v>
+        <v>0.1353</v>
       </c>
       <c r="H43">
-        <v>1.2224999999999999</v>
+        <v>0.90329999999999999</v>
       </c>
       <c r="I43">
-        <v>0.28649999999999998</v>
+        <v>0.14979999999999999</v>
       </c>
       <c r="J43">
         <v>-0.089800000000000005</v>
@@ -2253,968 +2240,968 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
         <v>14</v>
       </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44">
-        <v>2021</v>
-      </c>
       <c r="F44">
-        <v>0.55199753886519598</v>
+        <v>-0.57978801420046921</v>
       </c>
       <c r="G44">
-        <v>0.35449999999999998</v>
+        <v>-0.51259999999999994</v>
       </c>
       <c r="H44">
-        <v>1.2505999999999999</v>
+        <v>0.70279999999999998</v>
       </c>
       <c r="I44">
-        <v>0.28349999999999997</v>
+        <v>-0.72929999999999995</v>
       </c>
       <c r="J44">
-        <v>-0.090800000000000006</v>
+        <v>-0.079100000000000004</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45">
-        <v>6</v>
-      </c>
-      <c r="E45">
-        <v>2020</v>
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
       </c>
       <c r="F45">
-        <v>0.55484577085518905</v>
+        <v>2.8038580391793388</v>
       </c>
       <c r="G45">
-        <v>0.35510000000000003</v>
+        <v>1.5153000000000001</v>
       </c>
       <c r="H45">
-        <v>0.79730000000000001</v>
+        <v>1.1289</v>
       </c>
       <c r="I45">
-        <v>0.44540000000000002</v>
+        <v>1.3423</v>
       </c>
       <c r="J45">
-        <v>-0.073099999999999998</v>
+        <v>-0.0974</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
         <v>18</v>
       </c>
-      <c r="C46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46">
-        <v>8</v>
-      </c>
-      <c r="E46">
-        <v>2021</v>
-      </c>
       <c r="F46">
-        <v>0.57714966284402802</v>
+        <v>0.35964297431249181</v>
       </c>
       <c r="G46">
-        <v>0.36969999999999997</v>
+        <v>0.2356</v>
       </c>
       <c r="H46">
-        <v>1.0246999999999999</v>
+        <v>0.80110000000000003</v>
       </c>
       <c r="I46">
-        <v>0.36080000000000001</v>
+        <v>0.29409999999999997</v>
       </c>
       <c r="J46">
-        <v>-0.096299999999999997</v>
+        <v>-0.079000000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47">
-        <v>2021</v>
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
       </c>
       <c r="F47">
-        <v>0.61214949480468195</v>
+        <v>-0.67439455895568501</v>
       </c>
       <c r="G47">
-        <v>0.3906</v>
+        <v>-0.60550000000000004</v>
       </c>
       <c r="H47">
-        <v>1.2848999999999999</v>
+        <v>0.66010000000000002</v>
       </c>
       <c r="I47">
-        <v>0.30399999999999999</v>
+        <v>-0.9173</v>
       </c>
       <c r="J47">
-        <v>-0.097000000000000003</v>
+        <v>-0.072599999999999998</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48">
-        <v>8</v>
-      </c>
-      <c r="E48">
-        <v>2020</v>
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
       </c>
       <c r="F48">
-        <v>0.634667902052648</v>
+        <v>1.147195627162596</v>
       </c>
       <c r="G48">
-        <v>0.4027</v>
+        <v>0.69479999999999997</v>
       </c>
       <c r="H48">
-        <v>0.78759999999999997</v>
+        <v>1.0439000000000001</v>
       </c>
       <c r="I48">
-        <v>0.51129999999999998</v>
+        <v>0.66559999999999997</v>
       </c>
       <c r="J48">
-        <v>-0.079200000000000007</v>
+        <v>-0.088599999999999998</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
         <v>18</v>
       </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-      <c r="E49">
-        <v>2021</v>
-      </c>
       <c r="F49">
-        <v>0.65763448215978904</v>
+        <v>0.25392497002790271</v>
       </c>
       <c r="G49">
-        <v>0.41749999999999998</v>
+        <v>0.1686</v>
       </c>
       <c r="H49">
-        <v>1.3200000000000001</v>
+        <v>0.70379999999999998</v>
       </c>
       <c r="I49">
-        <v>0.31630000000000003</v>
+        <v>0.23960000000000001</v>
       </c>
       <c r="J49">
-        <v>-0.092700000000000005</v>
+        <v>-0.068000000000000005</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50">
-        <v>2020</v>
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
       </c>
       <c r="F50">
-        <v>0.81149474226197205</v>
+        <v>-0.75514818607790268</v>
       </c>
       <c r="G50">
-        <v>0.50539999999999996</v>
+        <v>-0.6885</v>
       </c>
       <c r="H50">
-        <v>0.80830000000000002</v>
+        <v>0.69589999999999996</v>
       </c>
       <c r="I50">
-        <v>0.62529999999999997</v>
+        <v>-0.98939999999999995</v>
       </c>
       <c r="J50">
-        <v>-0.076899999999999996</v>
+        <v>-0.078700000000000006</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51">
-        <v>6</v>
-      </c>
-      <c r="E51">
-        <v>2021</v>
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
       </c>
       <c r="F51">
-        <v>0.82582771396155397</v>
+        <v>0.27694824846141192</v>
       </c>
       <c r="G51">
-        <v>0.51539999999999997</v>
+        <v>0.18390000000000001</v>
       </c>
       <c r="H51">
-        <v>1.0442</v>
+        <v>1.0926</v>
       </c>
       <c r="I51">
-        <v>0.49349999999999999</v>
+        <v>0.16830000000000001</v>
       </c>
       <c r="J51">
-        <v>-0.090700000000000003</v>
+        <v>-0.0901</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
         <v>18</v>
       </c>
-      <c r="C52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52">
-        <v>6</v>
-      </c>
-      <c r="E52">
-        <v>2021</v>
-      </c>
       <c r="F52">
-        <v>0.85004387622178401</v>
+        <v>0.25103921365949811</v>
       </c>
       <c r="G52">
-        <v>0.5292</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="H52">
-        <v>1.0661</v>
+        <v>0.69930000000000003</v>
       </c>
       <c r="I52">
-        <v>0.49640000000000001</v>
+        <v>0.23849999999999999</v>
       </c>
       <c r="J52">
-        <v>-0.094399999999999998</v>
+        <v>-0.065299999999999997</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53">
-        <v>8</v>
-      </c>
-      <c r="E53">
-        <v>2020</v>
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
       </c>
       <c r="F53">
-        <v>0.887498099680057</v>
+        <v>-0.758197725843615</v>
       </c>
       <c r="G53">
-        <v>0.54869999999999997</v>
+        <v>-0.69169999999999998</v>
       </c>
       <c r="H53">
-        <v>0.78820000000000001</v>
+        <v>0.7712</v>
       </c>
       <c r="I53">
-        <v>0.69610000000000005</v>
+        <v>-0.89690000000000003</v>
       </c>
       <c r="J53">
-        <v>-0.077200000000000005</v>
+        <v>-0.082000000000000003</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54">
-        <v>8</v>
-      </c>
-      <c r="E54">
-        <v>2021</v>
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
       </c>
       <c r="F54">
-        <v>0.96898787964504396</v>
+        <v>0.61214949480468217</v>
       </c>
       <c r="G54">
-        <v>0.59640000000000004</v>
+        <v>0.3906</v>
       </c>
       <c r="H54">
-        <v>0.98929999999999996</v>
+        <v>1.2848999999999999</v>
       </c>
       <c r="I54">
-        <v>0.60289999999999999</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="J54">
-        <v>-0.091200000000000003</v>
+        <v>-0.097000000000000003</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55">
-        <v>8</v>
-      </c>
-      <c r="E55">
-        <v>2021</v>
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
       </c>
       <c r="F55">
-        <v>1.02076974730349</v>
+        <v>0.46404750296981701</v>
       </c>
       <c r="G55">
-        <v>0.62529999999999997</v>
+        <v>0.30009999999999998</v>
       </c>
       <c r="H55">
-        <v>1.0058</v>
+        <v>0.62990000000000002</v>
       </c>
       <c r="I55">
-        <v>0.62170000000000003</v>
+        <v>0.47649999999999998</v>
       </c>
       <c r="J55">
-        <v>-0.088300000000000003</v>
+        <v>-0.057700000000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
         <v>14</v>
       </c>
-      <c r="C56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56">
-        <v>8</v>
-      </c>
-      <c r="E56">
-        <v>2020</v>
-      </c>
       <c r="F56">
-        <v>1.06343904588595</v>
+        <v>-0.61976199469099469</v>
       </c>
       <c r="G56">
-        <v>0.64670000000000005</v>
+        <v>-0.5514</v>
       </c>
       <c r="H56">
-        <v>0.79020000000000001</v>
+        <v>0.62580000000000002</v>
       </c>
       <c r="I56">
-        <v>0.81840000000000002</v>
+        <v>-0.88100000000000001</v>
       </c>
       <c r="J56">
-        <v>-0.076999999999999999</v>
+        <v>-0.076600000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
-      <c r="D57">
-        <v>8</v>
-      </c>
-      <c r="E57">
-        <v>2021</v>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
       </c>
       <c r="F57">
-        <v>1.13169352792168</v>
+        <v>0.96898787964504374</v>
       </c>
       <c r="G57">
-        <v>0.68640000000000001</v>
+        <v>0.59640000000000004</v>
       </c>
       <c r="H57">
-        <v>0.91059999999999997</v>
+        <v>0.98929999999999996</v>
       </c>
       <c r="I57">
-        <v>0.75380000000000003</v>
+        <v>0.60289999999999999</v>
       </c>
       <c r="J57">
-        <v>-0.080500000000000002</v>
+        <v>-0.091200000000000003</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
-      <c r="D58">
-        <v>8</v>
-      </c>
-      <c r="E58">
-        <v>2021</v>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
       </c>
       <c r="F58">
-        <v>1.1471956271626</v>
+        <v>0.63466790205264845</v>
       </c>
       <c r="G58">
-        <v>0.69479999999999997</v>
+        <v>0.4027</v>
       </c>
       <c r="H58">
-        <v>1.0439000000000001</v>
+        <v>0.78759999999999997</v>
       </c>
       <c r="I58">
-        <v>0.66559999999999997</v>
+        <v>0.51129999999999998</v>
       </c>
       <c r="J58">
-        <v>-0.088599999999999998</v>
+        <v>-0.079200000000000007</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
         <v>14</v>
       </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59">
-        <v>8</v>
-      </c>
-      <c r="E59">
-        <v>2020</v>
-      </c>
       <c r="F59">
-        <v>1.2580714744925301</v>
+        <v>-0.58867083473529092</v>
       </c>
       <c r="G59">
-        <v>0.75209999999999999</v>
+        <v>-0.5212</v>
       </c>
       <c r="H59">
-        <v>0.63749999999999996</v>
+        <v>0.62329999999999997</v>
       </c>
       <c r="I59">
-        <v>1.1798</v>
+        <v>-0.83609999999999995</v>
       </c>
       <c r="J59">
-        <v>-0.054100000000000002</v>
+        <v>-0.074999999999999997</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
       </c>
-      <c r="D60">
-        <v>8</v>
-      </c>
-      <c r="E60">
-        <v>2021</v>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
       </c>
       <c r="F60">
-        <v>1.3591296680747</v>
+        <v>1.390520966205516</v>
       </c>
       <c r="G60">
-        <v>0.80859999999999999</v>
+        <v>0.82520000000000004</v>
       </c>
       <c r="H60">
-        <v>0.92769999999999997</v>
+        <v>1.0251999999999999</v>
       </c>
       <c r="I60">
-        <v>0.87170000000000003</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="J60">
-        <v>-0.0814</v>
+        <v>-0.092499999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
         <v>20</v>
       </c>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-      <c r="E61">
-        <v>2021</v>
+      <c r="E61" t="s">
+        <v>18</v>
       </c>
       <c r="F61">
-        <v>1.39052096620552</v>
+        <v>0.55484577085518882</v>
       </c>
       <c r="G61">
-        <v>0.82520000000000004</v>
+        <v>0.35510000000000003</v>
       </c>
       <c r="H61">
-        <v>1.0251999999999999</v>
+        <v>0.79730000000000001</v>
       </c>
       <c r="I61">
-        <v>0.80500000000000005</v>
+        <v>0.44540000000000002</v>
       </c>
       <c r="J61">
-        <v>-0.092499999999999999</v>
+        <v>-0.073099999999999998</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
         <v>76</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
         <v>14</v>
       </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62">
-        <v>6</v>
-      </c>
-      <c r="E62">
-        <v>2020</v>
-      </c>
       <c r="F62">
-        <v>1.5157014795972099</v>
+        <v>-0.60094218697580215</v>
       </c>
       <c r="G62">
-        <v>0.88739999999999997</v>
+        <v>-0.53300000000000003</v>
       </c>
       <c r="H62">
-        <v>0.61199999999999999</v>
+        <v>0.70009999999999994</v>
       </c>
       <c r="I62">
-        <v>1.45</v>
+        <v>-0.76129999999999998</v>
       </c>
       <c r="J62">
-        <v>-0.046100000000000002</v>
+        <v>-0.074300000000000005</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-      <c r="E63">
-        <v>2020</v>
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
       </c>
       <c r="F63">
-        <v>1.56966121812814</v>
+        <v>2.2945653758965801</v>
       </c>
       <c r="G63">
-        <v>0.91520000000000001</v>
+        <v>1.2777000000000001</v>
       </c>
       <c r="H63">
-        <v>0.80189999999999995</v>
+        <v>1.0592999999999999</v>
       </c>
       <c r="I63">
-        <v>1.1413</v>
+        <v>1.2061999999999999</v>
       </c>
       <c r="J63">
-        <v>-0.067699999999999996</v>
+        <v>-0.093100000000000002</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" t="s">
         <v>18</v>
       </c>
-      <c r="C64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64">
-        <v>8</v>
-      </c>
-      <c r="E64">
-        <v>2020</v>
-      </c>
       <c r="F64">
-        <v>1.6106738444242501</v>
+        <v>0.34212304662167892</v>
       </c>
       <c r="G64">
-        <v>0.93620000000000003</v>
+        <v>0.22459999999999999</v>
       </c>
       <c r="H64">
-        <v>0.62890000000000001</v>
+        <v>0.8216</v>
       </c>
       <c r="I64">
-        <v>1.4885999999999999</v>
+        <v>0.27329999999999999</v>
       </c>
       <c r="J64">
-        <v>-0.047100000000000003</v>
+        <v>-0.079100000000000004</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
         <v>14</v>
       </c>
-      <c r="C65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65">
-        <v>4</v>
-      </c>
-      <c r="E65">
-        <v>2020</v>
-      </c>
       <c r="F65">
-        <v>1.6693174616367199</v>
+        <v>-0.71786677042228253</v>
       </c>
       <c r="G65">
-        <v>0.96599999999999997</v>
+        <v>-0.64970000000000006</v>
       </c>
       <c r="H65">
-        <v>0.63460000000000005</v>
+        <v>0.65180000000000005</v>
       </c>
       <c r="I65">
-        <v>1.5221</v>
+        <v>-0.99680000000000002</v>
       </c>
       <c r="J65">
-        <v>-0.048399999999999999</v>
+        <v>-0.0717</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66">
-        <v>6</v>
-      </c>
-      <c r="E66">
-        <v>2020</v>
+        <v>28</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
       </c>
       <c r="F66">
-        <v>1.7258348837822</v>
+        <v>1.020769747303492</v>
       </c>
       <c r="G66">
-        <v>0.99460000000000004</v>
+        <v>0.62529999999999997</v>
       </c>
       <c r="H66">
-        <v>0.80940000000000001</v>
+        <v>1.0058</v>
       </c>
       <c r="I66">
-        <v>1.2287999999999999</v>
+        <v>0.62170000000000003</v>
       </c>
       <c r="J66">
-        <v>-0.068099999999999994</v>
+        <v>-0.088300000000000003</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
         <v>18</v>
       </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67">
-        <v>6</v>
-      </c>
-      <c r="E67">
-        <v>2020</v>
-      </c>
       <c r="F67">
-        <v>1.7270679776029001</v>
+        <v>0.37427967113511001</v>
       </c>
       <c r="G67">
-        <v>0.99519999999999997</v>
+        <v>0.2447</v>
       </c>
       <c r="H67">
-        <v>0.62539999999999996</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="I67">
-        <v>1.5913999999999999</v>
+        <v>0.34229999999999999</v>
       </c>
       <c r="J67">
-        <v>-0.045699999999999998</v>
+        <v>-0.065699999999999995</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68">
-        <v>2020</v>
+        <v>28</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
       </c>
       <c r="F68">
-        <v>1.7323476414641501</v>
+        <v>-0.73933566284736596</v>
       </c>
       <c r="G68">
-        <v>0.99790000000000001</v>
+        <v>-0.67190000000000005</v>
       </c>
       <c r="H68">
-        <v>0.63490000000000002</v>
+        <v>0.71179999999999999</v>
       </c>
       <c r="I68">
-        <v>1.5717000000000001</v>
+        <v>-0.94389999999999996</v>
       </c>
       <c r="J68">
-        <v>-0.046800000000000001</v>
+        <v>-0.075700000000000003</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69">
-        <v>2021</v>
+        <v>28</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
       </c>
       <c r="F69">
-        <v>2.2241357721945998</v>
+        <v>0.1815774836843165</v>
       </c>
       <c r="G69">
-        <v>1.244</v>
+        <v>0.1221</v>
       </c>
       <c r="H69">
-        <v>1.0913999999999999</v>
+        <v>1.0381</v>
       </c>
       <c r="I69">
-        <v>1.1397999999999999</v>
+        <v>0.1176</v>
       </c>
       <c r="J69">
-        <v>-0.096000000000000002</v>
+        <v>-0.089800000000000005</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" t="s">
         <v>18</v>
       </c>
-      <c r="C70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-      <c r="E70">
-        <v>2021</v>
-      </c>
       <c r="F70">
-        <v>2.2945653758965801</v>
+        <v>0.33256027442619712</v>
       </c>
       <c r="G70">
-        <v>1.2777000000000001</v>
+        <v>0.21859999999999999</v>
       </c>
       <c r="H70">
-        <v>1.0592999999999999</v>
+        <v>0.64429999999999998</v>
       </c>
       <c r="I70">
-        <v>1.2061999999999999</v>
+        <v>0.3392</v>
       </c>
       <c r="J70">
-        <v>-0.093100000000000002</v>
+        <v>-0.062199999999999998</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
-      <c r="E71">
-        <v>2021</v>
+        <v>28</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
       </c>
       <c r="F71">
-        <v>2.2945653758965801</v>
+        <v>-0.72329270099019061</v>
       </c>
       <c r="G71">
-        <v>1.2777000000000001</v>
+        <v>-0.65529999999999999</v>
       </c>
       <c r="H71">
-        <v>1.0592999999999999</v>
+        <v>0.77410000000000001</v>
       </c>
       <c r="I71">
-        <v>1.2061999999999999</v>
+        <v>-0.84650000000000003</v>
       </c>
       <c r="J71">
-        <v>-0.093100000000000002</v>
+        <v>-0.080799999999999997</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72">
-        <v>6</v>
-      </c>
-      <c r="E72">
-        <v>2021</v>
+        <v>28</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
       </c>
       <c r="F72">
-        <v>2.4929715910430201</v>
+        <v>0.40578663392001468</v>
       </c>
       <c r="G72">
-        <v>1.3714999999999999</v>
+        <v>0.2651</v>
       </c>
       <c r="H72">
-        <v>1.1825000000000001</v>
+        <v>1.1527000000000001</v>
       </c>
       <c r="I72">
-        <v>1.1597999999999999</v>
+        <v>0.23000000000000001</v>
       </c>
       <c r="J72">
-        <v>-0.099000000000000005</v>
+        <v>-0.093600000000000003</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-      <c r="E73">
-        <v>2021</v>
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
       </c>
       <c r="F73">
-        <v>2.8038580391793402</v>
+        <v>0.51550216524879433</v>
       </c>
       <c r="G73">
-        <v>1.5153000000000001</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="H73">
-        <v>1.1289</v>
+        <v>0.6169</v>
       </c>
       <c r="I73">
-        <v>1.3423</v>
+        <v>0.5373</v>
       </c>
       <c r="J73">
-        <v>-0.0974</v>
+        <v>-0.054600000000000003</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J73">
-    <sortState ref="A2:J73">
-      <sortCondition descending="0" ref="G1:G73"/>
+    <sortState ref="A1:A73">
+      <sortCondition descending="1" ref="A1:A73"/>
     </sortState>
   </autoFilter>
   <printOptions headings="0" gridLines="0"/>
